--- a/cleaned last season/lastseasonbowler_smat.xlsx
+++ b/cleaned last season/lastseasonbowler_smat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/Dataset_Final/lastseason/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/cricket-squad-selection/cleaned last season/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B7B2F0-B19E-9C4E-B63B-65C6A4C9A5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD35C1B9-A55C-9A4D-828C-BF73570285A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10600" yWindow="2100" windowWidth="29400" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5940" yWindow="3540" windowWidth="29400" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Player</t>
   </si>
@@ -83,13 +83,19 @@
   </si>
   <si>
     <t>Zeeshan Ansari</t>
+  </si>
+  <si>
+    <t>XC Bartlett</t>
+  </si>
+  <si>
+    <t>E Malinga</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +108,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -139,13 +152,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,24 +471,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -774,6 +797,94 @@
         <v>15</v>
       </c>
       <c r="N7" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5">
+        <v>35.1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>333</v>
+      </c>
+      <c r="G8" s="5">
+        <v>12</v>
+      </c>
+      <c r="H8" s="5">
+        <v>27.75</v>
+      </c>
+      <c r="I8" s="5">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="J8" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>26</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>100</v>
+      </c>
+      <c r="I9" s="5">
+        <v>14.18</v>
+      </c>
+      <c r="J9" s="4">
+        <v>100</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" s="5">
         <v>9</v>
       </c>
     </row>
